--- a/biology/Zoologie/Batagur_affinis/Batagur_affinis.xlsx
+++ b/biology/Zoologie/Batagur_affinis/Batagur_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batagur affinis ou tortue royale est une espèce de tortues de la famille des Geoemydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batagur affinis ou tortue royale est une espèce de tortues de la famille des Geoemydidae.
 C'est la plus grande des Batagur : la longueur de sa carapace  peut mesurer jusqu'à 62,5 cm.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à Sumatra en Indonésie, en Malaisie occidentale et au Cambodge[1]. Sa présence est incertaine en Birmanie et en Thaïlande. Elle a disparu de Singapour et du Viêt Nam.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à Sumatra en Indonésie, en Malaisie occidentale et au Cambodge. Sa présence est incertaine en Birmanie et en Thaïlande. Elle a disparu de Singapour et du Viêt Nam.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette grande tortue diurne essentiellement herbivore présente un dichromatisme sexuel pendant la saison des amours : les mâles se dotent dune tête noir de jais et d'iris tout blanc.
 </t>
@@ -574,9 +590,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles Batagur affinis remontent les rivières à la saison sèche pour nicher sur les bancs de sable exposés au soleil. La nidification est nocturne. Elles repartissent les œufs de leur ponte (une vingtaine) entre 2 à 4 nids, tous situés à moins de 6 mètres les uns des autres[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles Batagur affinis remontent les rivières à la saison sèche pour nicher sur les bancs de sable exposés au soleil. La nidification est nocturne. Elles repartissent les œufs de leur ponte (une vingtaine) entre 2 à 4 nids, tous situés à moins de 6 mètres les uns des autres.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La tortue royale est en danger d'extinction à cause de la chasse (très forte demande au Vietnam et en Chine comme spécialité culinaire ou pour la médecine traditionnelle) mais aussi à cause de l'extraction de sable, qui détruit les rivages où elle pond ses œufs.
-Le centre de conservation des reptiles de Koh Kong, le seul établissement dédié à la conservation des tortues au Cambodge, compte actuellement 192 tortues royales et en libère chaque année des dizaines dans la nature. En mars 2021, L'ONG Wildlife Conservation Society (WCS) a annoncé que quatre tortues royales élevées en captivité avaient pondu avec succès 71 œufs, une première qui suscite de l'espoir pour l'avenir de cette espèce[3].
+Le centre de conservation des reptiles de Koh Kong, le seul établissement dédié à la conservation des tortues au Cambodge, compte actuellement 192 tortues royales et en libère chaque année des dizaines dans la nature. En mars 2021, L'ONG Wildlife Conservation Society (WCS) a annoncé que quatre tortues royales élevées en captivité avaient pondu avec succès 71 œufs, une première qui suscite de l'espoir pour l'avenir de cette espèce.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (15 juin 2011)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (15 juin 2011) :
 Batagur affinis affinis (Cantor, 1847)
 Batagur affinis edwardmolli Praschag, Holloway, Georges, Päckert, Hundsdörfer &amp; Fritz, 2009</t>
         </is>
@@ -669,7 +691,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cantor, 1847 : Catalogue of reptiles inhabiting the Malayan Peninsula and Islands. Journal of the Asiatic Society of Bengal, vol. 16, no 2, p. 607-656, 897-952 &amp; 1026-1078 (texte intégral).
 Praschag, Holloway, Georges, Päckert, Hundsdörfer &amp; Fritz, 2009 : A new subspecies of Batagur affinis (Cantor, 1847), one of the world’s most critically endangered chelonians (Testudines: Geoemydidae). Zootaxa, no 2233, p. 57-68 (texte intégral).</t>
